--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna1-Epha5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna1-Epha5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.447252</v>
+        <v>14.02618833333333</v>
       </c>
       <c r="H2">
-        <v>61.341756</v>
+        <v>42.078565</v>
       </c>
       <c r="I2">
-        <v>0.8699145605694745</v>
+        <v>0.806325281849088</v>
       </c>
       <c r="J2">
-        <v>0.8770588936480435</v>
+        <v>0.8172785134657441</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.617649</v>
+        <v>0.0237255</v>
       </c>
       <c r="N2">
-        <v>1.235298</v>
+        <v>0.047451</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>12.629224750548</v>
+        <v>0.3327783313025</v>
       </c>
       <c r="R2">
-        <v>75.775348503288</v>
+        <v>1.996669987815</v>
       </c>
       <c r="S2">
-        <v>0.8699145605694745</v>
+        <v>0.806325281849088</v>
       </c>
       <c r="T2">
-        <v>0.8770588936480435</v>
+        <v>0.8172785134657441</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +584,13 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,10 +605,10 @@
         <v>7.449742</v>
       </c>
       <c r="I3">
-        <v>0.105648084777455</v>
+        <v>0.1427547569137158</v>
       </c>
       <c r="J3">
-        <v>0.1065157390747562</v>
+        <v>0.1446939568272663</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,10 +617,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.617649</v>
+        <v>0.0237255</v>
       </c>
       <c r="N3">
-        <v>1.235298</v>
+        <v>0.047451</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>1.533775232186</v>
+        <v>0.058916284607</v>
       </c>
       <c r="R3">
-        <v>9.202651393116</v>
+        <v>0.353497707642</v>
       </c>
       <c r="S3">
-        <v>0.105648084777455</v>
+        <v>0.1427547569137158</v>
       </c>
       <c r="T3">
-        <v>0.1065157390747562</v>
+        <v>0.1446939568272663</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +646,31 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5743975</v>
+        <v>0.1863673333333333</v>
       </c>
       <c r="H4">
-        <v>1.148795</v>
+        <v>0.559102</v>
       </c>
       <c r="I4">
-        <v>0.02443735465307048</v>
+        <v>0.01071372271683668</v>
       </c>
       <c r="J4">
-        <v>0.01642536727720028</v>
+        <v>0.01085925937435662</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,10 +679,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.617649</v>
+        <v>0.0237255</v>
       </c>
       <c r="N4">
-        <v>1.235298</v>
+        <v>0.047451</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +691,78 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.3547760414775</v>
+        <v>0.004421658167</v>
       </c>
       <c r="R4">
-        <v>1.41910416591</v>
+        <v>0.026529949002</v>
       </c>
       <c r="S4">
-        <v>0.02443735465307048</v>
+        <v>0.01071372271683668</v>
       </c>
       <c r="T4">
-        <v>0.01642536727720028</v>
+        <v>0.01085925937435662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.6993955000000001</v>
+      </c>
+      <c r="H5">
+        <v>1.398791</v>
+      </c>
+      <c r="I5">
+        <v>0.04020623852035952</v>
+      </c>
+      <c r="J5">
+        <v>0.02716827033263282</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.0237255</v>
+      </c>
+      <c r="N5">
+        <v>0.047451</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0.01659350793525</v>
+      </c>
+      <c r="R5">
+        <v>0.06637403174100001</v>
+      </c>
+      <c r="S5">
+        <v>0.04020623852035952</v>
+      </c>
+      <c r="T5">
+        <v>0.02716827033263282</v>
       </c>
     </row>
   </sheetData>
